--- a/team_assignment.xlsx
+++ b/team_assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasK\Documents\Thomas\fraunhofer_owncloud\Vortraege\SCM2024_HoMe\git\SCM_HoMe24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B449179-B5F6-486B-89BB-382E0930AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D09F1-3136-422F-83E7-DD25FDFB030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" xr2:uid="{A46C82B5-2604-4A47-B9BA-1A2119AF45E1}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A46C82B5-2604-4A47-B9BA-1A2119AF45E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Team 1</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Banafsha Nawabi</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +659,7 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -749,7 +752,7 @@
         <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
@@ -770,10 +773,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">

--- a/team_assignment.xlsx
+++ b/team_assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasK\Documents\Thomas\fraunhofer_owncloud\Vortraege\SCM2024_HoMe\git\SCM_HoMe24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D09F1-3136-422F-83E7-DD25FDFB030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC63BD8-96E2-4526-B4FC-1E23C90C8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A46C82B5-2604-4A47-B9BA-1A2119AF45E1}"/>
+    <workbookView xWindow="11715" yWindow="1920" windowWidth="27630" windowHeight="14130" xr2:uid="{A46C82B5-2604-4A47-B9BA-1A2119AF45E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Team 1</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Banafsha Nawabi</t>
+  </si>
+  <si>
+    <t>Andrii Hlibko</t>
   </si>
 </sst>
 </file>
@@ -580,19 +583,19 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -627,7 +630,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -659,10 +662,10 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>10</v>
@@ -695,7 +698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>11</v>
@@ -728,7 +731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>45</v>
@@ -737,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -761,7 +764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="E6" t="s">
         <v>16</v>
@@ -773,7 +776,7 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -782,7 +785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
